--- a/main/record_of_crawl.xlsx
+++ b/main/record_of_crawl.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="960" windowWidth="27180" windowHeight="16540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -895,7 +894,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1239,11 +1238,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1266,20 +1265,20 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="10" t="s">
         <v>21</v>
       </c>
     </row>

--- a/main/record_of_crawl.xlsx
+++ b/main/record_of_crawl.xlsx
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1238,11 +1238,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>40</v>
       </c>
     </row>
